--- a/data/datos_tp.xlsx
+++ b/data/datos_tp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\indicadores-socioeconomicos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F128AD4B-C661-4781-9127-11143FE314FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DC4C78-F7D3-4FFB-A3C1-8C4CA83ADC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1260" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="13" xr2:uid="{AF598439-62DC-4F7D-BE55-398D701C39E6}"/>
+    <workbookView xWindow="28680" yWindow="-1260" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{AF598439-62DC-4F7D-BE55-398D701C39E6}"/>
   </bookViews>
   <sheets>
     <sheet name="piramide" sheetId="9" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="198">
   <si>
     <t>semestre</t>
   </si>
@@ -639,22 +639,26 @@
   </si>
   <si>
     <t>tasa_desocupacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupo </t>
+  </si>
+  <si>
+    <t>edad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1387,12 +1391,12 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1477,19 +1481,16 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="38"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="38" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="54"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1499,20 +1500,20 @@
     <xf numFmtId="20" fontId="30" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1536,39 +1537,45 @@
     <xf numFmtId="164" fontId="32" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="121" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="121" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="129" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="129" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="121" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="121" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="52" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="121" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="121" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="129" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="129" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="34" fillId="0" borderId="0" xfId="121" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="121" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="134">
@@ -3082,169 +3089,168 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="37.21875" style="50" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="37"/>
+    <col min="1" max="1" width="37.6640625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="46">
         <v>62.8</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="46">
         <v>57.5</v>
       </c>
-      <c r="E2" s="48"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="46">
         <v>46.4</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="46">
         <v>29.9</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="46">
         <v>21.7</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="46">
         <v>24.2</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="46">
         <v>28.4</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="46">
         <v>28.6</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="46">
         <v>15.5</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="46">
         <v>18.3</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="46">
         <v>25.3</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="46">
         <v>41.5</v>
       </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="L9" s="48"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="L10" s="48"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
     </row>
     <row r="18" spans="16:16">
-      <c r="P18" s="49"/>
+      <c r="P18" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3265,212 +3271,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="51" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="54">
         <v>8</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="54">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="55">
         <v>11.9</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="55">
         <v>88.1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="54">
         <v>27.6</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="54">
         <v>72.400000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="55">
         <v>59.4</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="55">
         <v>40.6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="54">
         <v>71</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="54">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="55">
         <v>92.8</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="55">
         <v>7.2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="54">
         <v>77.400000000000006</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="54">
         <v>22.6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="55">
         <v>92.5</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="55">
         <v>7.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="54">
         <v>68</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="54">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="55">
         <v>82.9</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="55">
         <v>17.100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="54">
         <v>20</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="54">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="55">
         <v>26</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="55">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.8">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="55">
         <v>55.5</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="55">
         <v>44.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.8">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="56">
         <v>72.400000000000006</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="56">
         <v>27.6</v>
       </c>
     </row>
@@ -3943,7 +3949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007A4407-574F-4237-9E16-A68B67AE9EBF}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -5890,14 +5896,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" t="s">
         <v>34</v>
       </c>
       <c r="C1" t="s">
@@ -5905,90 +5910,90 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="41">
         <v>94.2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="41">
         <v>84.8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="41">
         <v>12.6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="41">
         <v>8.6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="41">
         <v>93.4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="42">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="41">
         <v>13.2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="41">
         <v>8.4</v>
       </c>
     </row>
@@ -6007,106 +6012,105 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" style="66" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="66"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="66" customFormat="1">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="66" customFormat="1">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="43">
         <v>0.25763888888888886</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="66" customFormat="1">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="43">
         <v>0.17708333333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="66" customFormat="1">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="43">
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="66" customFormat="1">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="43">
         <v>0.13125000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="66" customFormat="1">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="43">
         <v>0.20277777777777778</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="66" customFormat="1">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="43">
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="66" customFormat="1">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="43">
         <v>0.17291666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="66" customFormat="1">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="43">
         <v>0.16944444444444445</v>
       </c>
     </row>
@@ -6117,10 +6121,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B503D50C-D08C-49F7-BC75-6A76DBD75936}">
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -6130,17 +6134,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1">
-        <v>2022</v>
+      <c r="A1" t="s">
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="32">
-        <v>107</v>
+        <v>197</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6148,13 +6152,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="33">
-        <v>97</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="32">
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6162,7 +6166,7 @@
         <v>2022</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="33">
         <v>97</v>
@@ -6176,7 +6180,7 @@
         <v>2022</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="33">
         <v>97</v>
@@ -6190,10 +6194,10 @@
         <v>2022</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="33">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
         <v>67</v>
@@ -6204,10 +6208,10 @@
         <v>2022</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="33">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
         <v>67</v>
@@ -6218,10 +6222,10 @@
         <v>2022</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="33">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
         <v>67</v>
@@ -6232,10 +6236,10 @@
         <v>2022</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="33">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
         <v>67</v>
@@ -6246,7 +6250,7 @@
         <v>2022</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="33">
         <v>105</v>
@@ -6260,10 +6264,10 @@
         <v>2022</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="33">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
         <v>67</v>
@@ -6274,10 +6278,10 @@
         <v>2022</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="33">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
         <v>67</v>
@@ -6288,10 +6292,10 @@
         <v>2022</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="33">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
         <v>67</v>
@@ -6302,10 +6306,10 @@
         <v>2022</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="33">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
         <v>67</v>
@@ -6316,10 +6320,10 @@
         <v>2022</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C14" s="33">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
         <v>67</v>
@@ -6330,10 +6334,10 @@
         <v>2022</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="33">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
         <v>67</v>
@@ -6344,10 +6348,10 @@
         <v>2022</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="33">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
         <v>67</v>
@@ -6358,10 +6362,10 @@
         <v>2022</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="33">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
         <v>67</v>
@@ -6372,10 +6376,10 @@
         <v>2022</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="33">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
@@ -6386,20 +6390,31 @@
         <v>2022</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="34">
-        <v>228</v>
+        <v>43</v>
+      </c>
+      <c r="C19" s="33">
+        <v>169</v>
       </c>
       <c r="D19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="192" spans="3:3">
-      <c r="C192" s="32"/>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>2022</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="34">
+        <v>228</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="193" spans="3:3">
-      <c r="C193" s="33"/>
+      <c r="C193" s="32"/>
     </row>
     <row r="194" spans="3:3">
       <c r="C194" s="33"/>
@@ -6450,7 +6465,10 @@
       <c r="C209" s="33"/>
     </row>
     <row r="210" spans="3:3">
-      <c r="C210" s="34"/>
+      <c r="C210" s="33"/>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6530,10 +6548,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0096E20-159A-4F8B-9A22-08BC6CBBD972}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -6544,7 +6562,7 @@
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="36" t="s">
         <v>34</v>
       </c>
@@ -6572,642 +6590,654 @@
       <c r="I1" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="41"/>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="38">
         <v>1054462</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="38">
         <v>865188</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="38">
         <v>35112</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="38">
         <v>154162</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="30">
         <f>+D2/C2*100</f>
         <v>82.050182936891034</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="30">
         <f>+E2/C2*100</f>
         <v>3.3298497243143896</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="30">
         <f>+F2/C2*100</f>
         <v>14.61996733879457</v>
       </c>
-      <c r="J2" s="41"/>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <v>941658</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="38">
         <v>882739</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="38">
         <v>16901</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <v>42018</v>
       </c>
-      <c r="G3" s="42">
-        <f t="shared" ref="G3:G20" si="0">+D3/C3*100</f>
+      <c r="G3" s="30">
+        <f t="shared" ref="G3:G21" si="0">+D3/C3*100</f>
         <v>93.743057458227923</v>
       </c>
-      <c r="H3" s="42">
-        <f t="shared" ref="H3:H20" si="1">+E3/C3*100</f>
+      <c r="H3" s="30">
+        <f t="shared" ref="H3:H21" si="1">+E3/C3*100</f>
         <v>1.7948129788097165</v>
       </c>
-      <c r="I3" s="42">
-        <f t="shared" ref="I3:I20" si="2">+F3/C3*100</f>
+      <c r="I3" s="30">
+        <f t="shared" ref="I3:I21" si="2">+F3/C3*100</f>
         <v>4.4621295629623487</v>
       </c>
-      <c r="J3" s="41"/>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <v>793035</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="38">
         <v>759442</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="38">
         <v>11282</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="38">
         <v>22311</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="30">
         <f t="shared" si="0"/>
         <v>95.763995283940801</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="30">
         <f t="shared" si="1"/>
         <v>1.4226358231351706</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="30">
         <f t="shared" si="2"/>
         <v>2.8133688929240197</v>
       </c>
-      <c r="J4" s="41"/>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="38">
         <v>602502</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="38">
         <v>581631</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="38">
         <v>7193</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <v>13678</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="30">
         <f t="shared" si="0"/>
         <v>96.535945108895902</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="30">
         <f t="shared" si="1"/>
         <v>1.1938549581578151</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="30">
         <f t="shared" si="2"/>
         <v>2.270199932946281</v>
       </c>
-      <c r="J5" s="41"/>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="38">
         <v>404175</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
         <v>391477</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <v>4320</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <v>8378</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="30">
         <f t="shared" si="0"/>
         <v>96.858291581616868</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="30">
         <f t="shared" si="1"/>
         <v>1.0688439413620336</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="30">
         <f t="shared" si="2"/>
         <v>2.0728644770210924</v>
       </c>
-      <c r="J6" s="41"/>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="38">
         <v>237241</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>229300</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>2502</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="38">
         <v>5439</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="30">
         <f t="shared" si="0"/>
         <v>96.652770811116113</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="30">
         <f t="shared" si="1"/>
         <v>1.0546237791949959</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="30">
         <f t="shared" si="2"/>
         <v>2.2926054096888819</v>
       </c>
-      <c r="J7" s="41"/>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="38">
         <v>111080</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="38">
         <v>105804</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="38">
         <v>1231</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="38">
         <v>4045</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="30">
         <f t="shared" si="0"/>
         <v>95.250270075621174</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="30">
         <f t="shared" si="1"/>
         <v>1.1082102988836875</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="30">
         <f t="shared" si="2"/>
         <v>3.6415196254951385</v>
       </c>
-      <c r="J8" s="41"/>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="38">
         <v>30852</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="38">
         <v>27807</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="38">
         <v>494</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <v>2551</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="30">
         <f t="shared" si="0"/>
         <v>90.130299494360173</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="30">
         <f t="shared" si="1"/>
         <v>1.6011927913911577</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="30">
         <f t="shared" si="2"/>
         <v>8.2685077142486705</v>
       </c>
-      <c r="J9" s="41"/>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="38">
         <v>4200</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <v>3751</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="38">
         <v>84</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="38">
         <v>365</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="30">
         <f t="shared" si="0"/>
         <v>89.30952380952381</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="30">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="30">
         <f t="shared" si="2"/>
         <v>8.6904761904761898</v>
       </c>
-      <c r="J10" s="41"/>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="39">
         <f>SUM(C2:C10)</f>
         <v>4179205</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="39">
         <f t="shared" ref="D11:F11" si="3">SUM(D2:D10)</f>
         <v>3847139</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="39">
         <f t="shared" si="3"/>
         <v>79119</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="39">
         <f t="shared" si="3"/>
         <v>252947</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="30">
         <f t="shared" si="0"/>
         <v>92.05432612183418</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="30">
         <f t="shared" si="1"/>
         <v>1.8931591056193704</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="30">
         <f t="shared" si="2"/>
         <v>6.052514772546453</v>
       </c>
-      <c r="J11" s="41"/>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="69">
+        <v>923244</v>
+      </c>
+      <c r="D12" s="69">
+        <v>626261</v>
+      </c>
+      <c r="E12" s="69">
+        <v>34324</v>
+      </c>
+      <c r="F12" s="69">
+        <v>262659</v>
+      </c>
+      <c r="G12" s="30">
+        <f t="shared" si="0"/>
+        <v>67.832663954490897</v>
+      </c>
+      <c r="H12" s="30">
+        <f t="shared" si="1"/>
+        <v>3.7177604186975493</v>
+      </c>
+      <c r="I12" s="30">
+        <f t="shared" si="2"/>
+        <v>28.449575626811548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C13" s="38">
         <v>790896</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D13" s="38">
         <v>684782</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E13" s="38">
         <v>17600</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F13" s="38">
         <v>88514</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G13" s="30">
         <f t="shared" si="0"/>
         <v>86.58306528291962</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H13" s="30">
         <f t="shared" si="1"/>
         <v>2.2253241892739375</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I13" s="30">
         <f t="shared" si="2"/>
         <v>11.191610527806438</v>
       </c>
-      <c r="J12" s="41"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="36" t="s">
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C14" s="38">
         <v>622529</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D14" s="38">
         <v>592567</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E14" s="38">
         <v>8665</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F14" s="38">
         <v>21297</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G14" s="30">
         <f t="shared" si="0"/>
         <v>95.187051526916818</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H14" s="30">
         <f t="shared" si="1"/>
         <v>1.3919030278107525</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I14" s="30">
         <f t="shared" si="2"/>
         <v>3.421045445272429</v>
       </c>
-      <c r="J13" s="41"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="36" t="s">
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C15" s="38">
         <v>419408</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D15" s="38">
         <v>402784</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E15" s="38">
         <v>5083</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F15" s="38">
         <v>11541</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G15" s="30">
         <f t="shared" si="0"/>
         <v>96.036317857551595</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H15" s="30">
         <f t="shared" si="1"/>
         <v>1.2119463624918934</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I15" s="30">
         <f t="shared" si="2"/>
         <v>2.7517357799565101</v>
       </c>
-      <c r="J14" s="41"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="36" t="s">
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C16" s="38">
         <v>241330</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D16" s="38">
         <v>232105</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E16" s="38">
         <v>2749</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F16" s="38">
         <v>6476</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G16" s="30">
         <f t="shared" si="0"/>
         <v>96.177433389963952</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H16" s="30">
         <f t="shared" si="1"/>
         <v>1.1391041312725314</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I16" s="30">
         <f t="shared" si="2"/>
         <v>2.6834624787635186</v>
       </c>
-      <c r="J15" s="41"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="36" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C17" s="38">
         <v>116378</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D17" s="38">
         <v>111303</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E17" s="38">
         <v>1325</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F17" s="38">
         <v>3750</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G17" s="30">
         <f t="shared" si="0"/>
         <v>95.639210159995883</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H17" s="30">
         <f t="shared" si="1"/>
         <v>1.1385313375380226</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I17" s="30">
         <f t="shared" si="2"/>
         <v>3.2222585024661021</v>
       </c>
-      <c r="J16" s="41"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="36" t="s">
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C18" s="38">
         <v>45076</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D18" s="38">
         <v>41293</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E18" s="38">
         <v>628</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F18" s="38">
         <v>3155</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G18" s="30">
         <f t="shared" si="0"/>
         <v>91.607507320969034</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H18" s="30">
         <f t="shared" si="1"/>
         <v>1.3932025911793415</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I18" s="30">
         <f t="shared" si="2"/>
         <v>6.9992900878516284</v>
       </c>
-      <c r="J17" s="41"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="36" t="s">
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C19" s="38">
         <v>11729</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D19" s="38">
         <v>9345</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E19" s="38">
         <v>235</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F19" s="38">
         <v>2149</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G19" s="30">
         <f t="shared" si="0"/>
         <v>79.674311535510284</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H19" s="30">
         <f t="shared" si="1"/>
         <v>2.0035808679341804</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I19" s="30">
         <f t="shared" si="2"/>
         <v>18.322107596555544</v>
       </c>
-      <c r="J18" s="41"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="36" t="s">
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C20" s="38">
         <v>1334</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D20" s="38">
         <v>1109</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E20" s="38">
         <v>31</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F20" s="38">
         <v>194</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G20" s="30">
         <f t="shared" si="0"/>
         <v>83.133433283358315</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H20" s="30">
         <f t="shared" si="1"/>
         <v>2.3238380809595203</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I20" s="30">
         <f t="shared" si="2"/>
         <v>14.54272863568216</v>
       </c>
-      <c r="J19" s="41"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="36" t="s">
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="40">
-        <f>SUM(C12:C19)</f>
+      <c r="C21" s="39">
+        <f>SUM(C13:C20)</f>
         <v>2248680</v>
       </c>
-      <c r="D20" s="40">
-        <f t="shared" ref="D20:F20" si="4">SUM(D12:D19)</f>
+      <c r="D21" s="39">
+        <f t="shared" ref="D21:F21" si="4">SUM(D13:D20)</f>
         <v>2075288</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E21" s="39">
         <f t="shared" si="4"/>
         <v>36316</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F21" s="39">
         <f t="shared" si="4"/>
         <v>137076</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G21" s="30">
         <f t="shared" si="0"/>
         <v>92.289165199139049</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H21" s="30">
         <f t="shared" si="1"/>
         <v>1.6149919063628442</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I21" s="30">
         <f t="shared" si="2"/>
         <v>6.0958428944981051</v>
       </c>
-      <c r="J20" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7355,7 +7385,7 @@
     <col min="7" max="7" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" thickBot="1">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
@@ -7670,123 +7700,123 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="61"/>
-    <col min="2" max="2" width="18.77734375" style="61" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="61"/>
+    <col min="1" max="1" width="11.5546875" style="58"/>
+    <col min="2" max="2" width="18.77734375" style="58" customWidth="1"/>
+    <col min="3" max="4" width="12.5546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="67">
+      <c r="A2" s="63">
         <v>2023</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="65">
         <v>243312.09206565554</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="65">
         <v>180843.52343982717</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="67">
+      <c r="A3" s="63">
         <v>2022</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="65">
         <v>100784.01832843763</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="65">
         <v>67140.727649110951</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="63"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="67">
+      <c r="A4" s="63">
         <v>2023</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="65">
         <v>162870.09699135067</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="65">
         <v>147223.48147820306</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="63"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="67">
+      <c r="A5" s="63">
         <v>2022</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="65">
         <v>56884.97583004857</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="65">
         <v>52085.505609997323</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="67">
+      <c r="A6" s="63">
         <v>2023</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="65">
         <v>311079.68979367655</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="65">
         <v>120708.70080775545</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="67">
+      <c r="A7" s="63">
         <v>2022</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="65">
         <v>134030.74916924138</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="65">
         <v>307777.26345821464</v>
       </c>
     </row>

--- a/data/datos_tp.xlsx
+++ b/data/datos_tp.xlsx
@@ -1,34 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\indicadores-socioeconomicos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DC4C78-F7D3-4FFB-A3C1-8C4CA83ADC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DABBFD-47B4-43E9-AE65-22DEBD3B4492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1260" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{AF598439-62DC-4F7D-BE55-398D701C39E6}"/>
+    <workbookView xWindow="28680" yWindow="-1260" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AF598439-62DC-4F7D-BE55-398D701C39E6}"/>
   </bookViews>
   <sheets>
     <sheet name="piramide" sheetId="9" r:id="rId1"/>
-    <sheet name="ind_feminidad" sheetId="8" r:id="rId2"/>
-    <sheet name="ind_envejecimiento" sheetId="10" r:id="rId3"/>
-    <sheet name="cob_salud" sheetId="6" r:id="rId4"/>
-    <sheet name="jubilacion" sheetId="5" r:id="rId5"/>
-    <sheet name="bess-1" sheetId="2" r:id="rId6"/>
-    <sheet name="bess-2" sheetId="16" r:id="rId7"/>
-    <sheet name="ingresos" sheetId="3" r:id="rId8"/>
-    <sheet name="pobreza" sheetId="1" r:id="rId9"/>
-    <sheet name="act1" sheetId="14" r:id="rId10"/>
-    <sheet name="act2" sheetId="15" r:id="rId11"/>
-    <sheet name="act3" sheetId="17" r:id="rId12"/>
-    <sheet name="act4" sheetId="18" r:id="rId13"/>
-    <sheet name="estrato" sheetId="7" r:id="rId14"/>
-    <sheet name="enut" sheetId="11" r:id="rId15"/>
-    <sheet name="enut2" sheetId="12" r:id="rId16"/>
+    <sheet name="piramide2" sheetId="21" r:id="rId2"/>
+    <sheet name="ind_feminidad" sheetId="8" r:id="rId3"/>
+    <sheet name="ind_envejecimiento" sheetId="10" r:id="rId4"/>
+    <sheet name="cob_salud" sheetId="6" r:id="rId5"/>
+    <sheet name="salud2" sheetId="19" r:id="rId6"/>
+    <sheet name="salud3" sheetId="20" r:id="rId7"/>
+    <sheet name="jubilacion" sheetId="5" r:id="rId8"/>
+    <sheet name="bess-1" sheetId="2" r:id="rId9"/>
+    <sheet name="bess-2" sheetId="16" r:id="rId10"/>
+    <sheet name="ingresos" sheetId="3" r:id="rId11"/>
+    <sheet name="pobreza" sheetId="1" r:id="rId12"/>
+    <sheet name="act1" sheetId="14" r:id="rId13"/>
+    <sheet name="act2" sheetId="15" r:id="rId14"/>
+    <sheet name="act3" sheetId="17" r:id="rId15"/>
+    <sheet name="act4" sheetId="18" r:id="rId16"/>
+    <sheet name="estrato" sheetId="7" r:id="rId17"/>
+    <sheet name="enut" sheetId="11" r:id="rId18"/>
+    <sheet name="enut2" sheetId="12" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="207">
   <si>
     <t>semestre</t>
   </si>
@@ -645,6 +648,33 @@
   </si>
   <si>
     <t>edad</t>
+  </si>
+  <si>
+    <t>cobertura</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Solo sistema público</t>
+  </si>
+  <si>
+    <t>Programas o planes estatales de salud</t>
+  </si>
+  <si>
+    <t>Obra social o prepaga (Incluye PAMI)</t>
+  </si>
+  <si>
+    <t>65 años y más</t>
+  </si>
+  <si>
+    <t>0-14 años</t>
+  </si>
+  <si>
+    <t>15-64 años</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1426,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1575,6 +1605,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2046,7 +2079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58279DC5-DC26-41C1-AA44-D3CCF7ACA665}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
@@ -3080,6 +3113,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B129930-DDF4-447E-8EC7-5F533FCDC337}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="58"/>
+    <col min="2" max="2" width="18.77734375" style="58" customWidth="1"/>
+    <col min="3" max="4" width="12.5546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="63">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="65">
+        <v>243312.09206565554</v>
+      </c>
+      <c r="D2" s="65">
+        <v>180843.52343982717</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="63">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="65">
+        <v>100784.01832843763</v>
+      </c>
+      <c r="D3" s="65">
+        <v>67140.727649110951</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="60"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="63">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="65">
+        <v>162870.09699135067</v>
+      </c>
+      <c r="D4" s="65">
+        <v>147223.48147820306</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="60"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="63">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="65">
+        <v>56884.97583004857</v>
+      </c>
+      <c r="D5" s="65">
+        <v>52085.505609997323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="63">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="65">
+        <v>311079.68979367655</v>
+      </c>
+      <c r="D6" s="65">
+        <v>307777.26345821464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="63">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="65">
+        <v>134030.74916924138</v>
+      </c>
+      <c r="D7" s="65">
+        <v>120708.70080775545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D1CF82-49B4-4F76-B978-57349D795049}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>3018200</v>
+      </c>
+      <c r="D2">
+        <v>951227</v>
+      </c>
+      <c r="E2">
+        <v>2251437</v>
+      </c>
+      <c r="F2">
+        <v>204809</v>
+      </c>
+      <c r="G2">
+        <v>31.5</v>
+      </c>
+      <c r="H2">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="I2">
+        <v>6.8</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>4041006</v>
+      </c>
+      <c r="D3">
+        <v>593218</v>
+      </c>
+      <c r="E3">
+        <v>3649248</v>
+      </c>
+      <c r="F3">
+        <v>266075</v>
+      </c>
+      <c r="G3">
+        <v>14.7</v>
+      </c>
+      <c r="H3">
+        <v>90.3</v>
+      </c>
+      <c r="I3">
+        <v>6.6</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>7059206</v>
+      </c>
+      <c r="D4">
+        <v>1544445</v>
+      </c>
+      <c r="E4">
+        <v>5900685</v>
+      </c>
+      <c r="F4">
+        <v>470884</v>
+      </c>
+      <c r="G4">
+        <v>21.9</v>
+      </c>
+      <c r="H4">
+        <v>83.6</v>
+      </c>
+      <c r="I4">
+        <v>6.7</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>3076390</v>
+      </c>
+      <c r="D5">
+        <v>1005257</v>
+      </c>
+      <c r="E5">
+        <v>2263218</v>
+      </c>
+      <c r="F5">
+        <v>218227</v>
+      </c>
+      <c r="G5">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H5">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="I5">
+        <v>7.1</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>4027390</v>
+      </c>
+      <c r="D6">
+        <v>561000</v>
+      </c>
+      <c r="E6">
+        <v>3558004</v>
+      </c>
+      <c r="F6">
+        <v>283034</v>
+      </c>
+      <c r="G6">
+        <v>13.9</v>
+      </c>
+      <c r="H6">
+        <v>88.3</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>7103780</v>
+      </c>
+      <c r="D7">
+        <v>1566257</v>
+      </c>
+      <c r="E7">
+        <v>5821222</v>
+      </c>
+      <c r="F7">
+        <v>501261</v>
+      </c>
+      <c r="G7">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="I7">
+        <v>7.1</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>2621381</v>
+      </c>
+      <c r="D8">
+        <v>756501</v>
+      </c>
+      <c r="E8">
+        <v>1913535</v>
+      </c>
+      <c r="F8">
+        <v>230599</v>
+      </c>
+      <c r="G8">
+        <v>28.9</v>
+      </c>
+      <c r="H8">
+        <v>73</v>
+      </c>
+      <c r="I8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>3409171</v>
+      </c>
+      <c r="D9">
+        <v>377347</v>
+      </c>
+      <c r="E9">
+        <v>2998343</v>
+      </c>
+      <c r="F9">
+        <v>282573</v>
+      </c>
+      <c r="G9">
+        <v>11.1</v>
+      </c>
+      <c r="H9">
+        <v>87.9</v>
+      </c>
+      <c r="I9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>6030552</v>
+      </c>
+      <c r="D10">
+        <v>1133848</v>
+      </c>
+      <c r="E10">
+        <v>4911878</v>
+      </c>
+      <c r="F10">
+        <v>513172</v>
+      </c>
+      <c r="G10">
+        <v>18.8</v>
+      </c>
+      <c r="H10">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="I10">
+        <v>8.5</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>2898146</v>
+      </c>
+      <c r="D11">
+        <v>1047582</v>
+      </c>
+      <c r="E11">
+        <v>1988282</v>
+      </c>
+      <c r="F11">
+        <v>201825</v>
+      </c>
+      <c r="G11">
+        <v>36.1</v>
+      </c>
+      <c r="H11">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>3710307</v>
+      </c>
+      <c r="D12">
+        <v>488463</v>
+      </c>
+      <c r="E12">
+        <v>3215819</v>
+      </c>
+      <c r="F12">
+        <v>220936</v>
+      </c>
+      <c r="G12">
+        <v>13.2</v>
+      </c>
+      <c r="H12">
+        <v>86.7</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>6608453</v>
+      </c>
+      <c r="D13">
+        <v>1536045</v>
+      </c>
+      <c r="E13">
+        <v>5204101</v>
+      </c>
+      <c r="F13">
+        <v>422761</v>
+      </c>
+      <c r="G13">
+        <v>23.2</v>
+      </c>
+      <c r="H13">
+        <v>78.7</v>
+      </c>
+      <c r="I13">
+        <v>6.4</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>2909899</v>
+      </c>
+      <c r="D14">
+        <v>1027212</v>
+      </c>
+      <c r="E14">
+        <v>2109983</v>
+      </c>
+      <c r="F14">
+        <v>196205</v>
+      </c>
+      <c r="G14">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="H14">
+        <v>72.5</v>
+      </c>
+      <c r="I14">
+        <v>6.7</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>2022</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>3845623</v>
+      </c>
+      <c r="D15">
+        <v>533916</v>
+      </c>
+      <c r="E15">
+        <v>3389719</v>
+      </c>
+      <c r="F15">
+        <v>249676</v>
+      </c>
+      <c r="G15">
+        <v>13.9</v>
+      </c>
+      <c r="H15">
+        <v>88.1</v>
+      </c>
+      <c r="I15">
+        <v>6.5</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>2022</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>6755522</v>
+      </c>
+      <c r="D16">
+        <v>1561128</v>
+      </c>
+      <c r="E16">
+        <v>5499702</v>
+      </c>
+      <c r="F16">
+        <v>445881</v>
+      </c>
+      <c r="G16">
+        <v>23.1</v>
+      </c>
+      <c r="H16">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="I16">
+        <v>6.6</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>2023</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>2892418</v>
+      </c>
+      <c r="D17">
+        <v>1021051</v>
+      </c>
+      <c r="E17">
+        <v>2106085</v>
+      </c>
+      <c r="F17">
+        <v>180280</v>
+      </c>
+      <c r="G17">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="H17">
+        <v>72.8</v>
+      </c>
+      <c r="I17">
+        <v>6.2</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>2023</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>3875911</v>
+      </c>
+      <c r="D18">
+        <v>577074</v>
+      </c>
+      <c r="E18">
+        <v>3466663</v>
+      </c>
+      <c r="F18">
+        <v>267574</v>
+      </c>
+      <c r="G18">
+        <v>14.9</v>
+      </c>
+      <c r="H18">
+        <v>89.4</v>
+      </c>
+      <c r="I18">
+        <v>6.9</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>2023</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>6768329</v>
+      </c>
+      <c r="D19">
+        <v>1598125</v>
+      </c>
+      <c r="E19">
+        <v>5572748</v>
+      </c>
+      <c r="F19">
+        <v>447854</v>
+      </c>
+      <c r="G19">
+        <v>23.6</v>
+      </c>
+      <c r="H19">
+        <v>82.3</v>
+      </c>
+      <c r="I19">
+        <v>6.6</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF04176-3630-44AA-BE48-6C305470BD30}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E4" s="28">
+        <v>10.4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="F7" s="5">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>11.7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>86.2</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2021</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2022</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="29">
+        <v>12.1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="29">
+        <v>14.5</v>
+      </c>
+      <c r="F11" s="8">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="D12" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="E12" s="29">
+        <v>13.2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2023</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="D13" s="9">
+        <v>15</v>
+      </c>
+      <c r="E13" s="29">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F13" s="8">
+        <v>82.4</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF93EB8-6831-4D32-9261-B4674B67EA73}">
   <dimension ref="A1:P18"/>
   <sheetViews>
@@ -3257,7 +4448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95A31A5-270F-4706-A609-76861D932318}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -3485,7 +4676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB78C404-500F-43DA-B475-15958D11E11D}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -3709,7 +4900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B8C7B6-1F60-4FD3-99BE-80BE227B7C13}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -3945,7 +5136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007A4407-574F-4237-9E16-A68B67AE9EBF}">
   <dimension ref="A1:K55"/>
   <sheetViews>
@@ -5885,7 +7076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08CD44D-9176-4455-889B-68F04FC26E39}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -6002,7 +7193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98777A51-CAEE-4308-BCA6-657593215757}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -6120,6 +7311,494 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7530753F-476B-4D0D-BBB8-9652C24C5C79}">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="69">
+        <v>37947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="69">
+        <v>54562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="69">
+        <v>64841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="69">
+        <v>77140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="69">
+        <v>89002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="69">
+        <v>106802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="69">
+        <v>110330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="69">
+        <v>117110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="69">
+        <v>145381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="69">
+        <v>170039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="69">
+        <v>210960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="69">
+        <v>299557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="69">
+        <v>717374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="69">
+        <v>870780</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="69">
+        <v>765374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="69">
+        <v>585657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="69">
+        <v>393785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="69">
+        <v>230389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="69">
+        <v>105397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="69">
+        <v>26951</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="69">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="69">
+        <v>39324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="69">
+        <v>62021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="69">
+        <v>74434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="69">
+        <v>81561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="69">
+        <v>75678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="69">
+        <v>80708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="69">
+        <v>78938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="69">
+        <v>77011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="69">
+        <v>87017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="69">
+        <v>91888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="69">
+        <v>113266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="69">
+        <v>171273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="69">
+        <v>264557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="69">
+        <v>615158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="69">
+        <v>591873</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="69">
+        <v>404309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="69">
+        <v>232793</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="69">
+        <v>111304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="69">
+        <v>40213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="69">
+        <v>8146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="70">
+        <v>1191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B503D50C-D08C-49F7-BC75-6A76DBD75936}">
   <dimension ref="A1:D211"/>
   <sheetViews>
@@ -6475,7 +8154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A775D371-C279-4270-BB7B-D597EDE2A98B}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -6546,11 +8225,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0096E20-159A-4F8B-9A22-08BC6CBBD972}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -7244,7 +8923,336 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B6FAF5-E35B-4BBC-9459-CD58CEE31A92}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2010</v>
+      </c>
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <f>93.31+6.5</f>
+        <v>99.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2010</v>
+      </c>
+      <c r="B7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <f>100-D6</f>
+        <v>0.18999999999999773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>2010</v>
+      </c>
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <f>92.28+6.76</f>
+        <v>99.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>2022</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <f>92.05+6.05</f>
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <f>100-D10</f>
+        <v>1.9000000000000057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <f>92.29+6.1</f>
+        <v>98.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <f>100-D12</f>
+        <v>1.6099999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB80D08-1D93-47EF-8D40-6A7272BB490A}">
+  <dimension ref="A4:C13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13">
+        <v>94.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1217EB7E-4A90-430B-8C0A-3ECF74D25B6A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -7369,7 +9377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F94E8A1-5AB4-48B6-9F9A-BBCFAE47F327}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -7688,1162 +9696,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B129930-DDF4-447E-8EC7-5F533FCDC337}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="11.5546875" style="58"/>
-    <col min="2" max="2" width="18.77734375" style="58" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="58"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="63">
-        <v>2023</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="65">
-        <v>243312.09206565554</v>
-      </c>
-      <c r="D2" s="65">
-        <v>180843.52343982717</v>
-      </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="63">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="65">
-        <v>100784.01832843763</v>
-      </c>
-      <c r="D3" s="65">
-        <v>67140.727649110951</v>
-      </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="63">
-        <v>2023</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="65">
-        <v>162870.09699135067</v>
-      </c>
-      <c r="D4" s="65">
-        <v>147223.48147820306</v>
-      </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="60"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="63">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="65">
-        <v>56884.97583004857</v>
-      </c>
-      <c r="D5" s="65">
-        <v>52085.505609997323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="63">
-        <v>2023</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="65">
-        <v>311079.68979367655</v>
-      </c>
-      <c r="D6" s="65">
-        <v>120708.70080775545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="63">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="65">
-        <v>134030.74916924138</v>
-      </c>
-      <c r="D7" s="65">
-        <v>307777.26345821464</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D1CF82-49B4-4F76-B978-57349D795049}">
-  <dimension ref="A1:M19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>2018</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>3018200</v>
-      </c>
-      <c r="D2">
-        <v>951227</v>
-      </c>
-      <c r="E2">
-        <v>2251437</v>
-      </c>
-      <c r="F2">
-        <v>204809</v>
-      </c>
-      <c r="G2">
-        <v>31.5</v>
-      </c>
-      <c r="H2">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="I2">
-        <v>6.8</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
-        <v>2018</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <v>4041006</v>
-      </c>
-      <c r="D3">
-        <v>593218</v>
-      </c>
-      <c r="E3">
-        <v>3649248</v>
-      </c>
-      <c r="F3">
-        <v>266075</v>
-      </c>
-      <c r="G3">
-        <v>14.7</v>
-      </c>
-      <c r="H3">
-        <v>90.3</v>
-      </c>
-      <c r="I3">
-        <v>6.6</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>2018</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>7059206</v>
-      </c>
-      <c r="D4">
-        <v>1544445</v>
-      </c>
-      <c r="E4">
-        <v>5900685</v>
-      </c>
-      <c r="F4">
-        <v>470884</v>
-      </c>
-      <c r="G4">
-        <v>21.9</v>
-      </c>
-      <c r="H4">
-        <v>83.6</v>
-      </c>
-      <c r="I4">
-        <v>6.7</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
-        <v>2019</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>3076390</v>
-      </c>
-      <c r="D5">
-        <v>1005257</v>
-      </c>
-      <c r="E5">
-        <v>2263218</v>
-      </c>
-      <c r="F5">
-        <v>218227</v>
-      </c>
-      <c r="G5">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="H5">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="I5">
-        <v>7.1</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
-        <v>2019</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6">
-        <v>4027390</v>
-      </c>
-      <c r="D6">
-        <v>561000</v>
-      </c>
-      <c r="E6">
-        <v>3558004</v>
-      </c>
-      <c r="F6">
-        <v>283034</v>
-      </c>
-      <c r="G6">
-        <v>13.9</v>
-      </c>
-      <c r="H6">
-        <v>88.3</v>
-      </c>
-      <c r="I6">
-        <v>7</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7">
-        <v>2019</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>7103780</v>
-      </c>
-      <c r="D7">
-        <v>1566257</v>
-      </c>
-      <c r="E7">
-        <v>5821222</v>
-      </c>
-      <c r="F7">
-        <v>501261</v>
-      </c>
-      <c r="G7">
-        <v>22</v>
-      </c>
-      <c r="H7">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="I7">
-        <v>7.1</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8">
-        <v>2020</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>2621381</v>
-      </c>
-      <c r="D8">
-        <v>756501</v>
-      </c>
-      <c r="E8">
-        <v>1913535</v>
-      </c>
-      <c r="F8">
-        <v>230599</v>
-      </c>
-      <c r="G8">
-        <v>28.9</v>
-      </c>
-      <c r="H8">
-        <v>73</v>
-      </c>
-      <c r="I8">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9">
-        <v>2020</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>3409171</v>
-      </c>
-      <c r="D9">
-        <v>377347</v>
-      </c>
-      <c r="E9">
-        <v>2998343</v>
-      </c>
-      <c r="F9">
-        <v>282573</v>
-      </c>
-      <c r="G9">
-        <v>11.1</v>
-      </c>
-      <c r="H9">
-        <v>87.9</v>
-      </c>
-      <c r="I9">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10">
-        <v>2020</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>6030552</v>
-      </c>
-      <c r="D10">
-        <v>1133848</v>
-      </c>
-      <c r="E10">
-        <v>4911878</v>
-      </c>
-      <c r="F10">
-        <v>513172</v>
-      </c>
-      <c r="G10">
-        <v>18.8</v>
-      </c>
-      <c r="H10">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="I10">
-        <v>8.5</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11">
-        <v>2021</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>2898146</v>
-      </c>
-      <c r="D11">
-        <v>1047582</v>
-      </c>
-      <c r="E11">
-        <v>1988282</v>
-      </c>
-      <c r="F11">
-        <v>201825</v>
-      </c>
-      <c r="G11">
-        <v>36.1</v>
-      </c>
-      <c r="H11">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>2021</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12">
-        <v>3710307</v>
-      </c>
-      <c r="D12">
-        <v>488463</v>
-      </c>
-      <c r="E12">
-        <v>3215819</v>
-      </c>
-      <c r="F12">
-        <v>220936</v>
-      </c>
-      <c r="G12">
-        <v>13.2</v>
-      </c>
-      <c r="H12">
-        <v>86.7</v>
-      </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>6608453</v>
-      </c>
-      <c r="D13">
-        <v>1536045</v>
-      </c>
-      <c r="E13">
-        <v>5204101</v>
-      </c>
-      <c r="F13">
-        <v>422761</v>
-      </c>
-      <c r="G13">
-        <v>23.2</v>
-      </c>
-      <c r="H13">
-        <v>78.7</v>
-      </c>
-      <c r="I13">
-        <v>6.4</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>2909899</v>
-      </c>
-      <c r="D14">
-        <v>1027212</v>
-      </c>
-      <c r="E14">
-        <v>2109983</v>
-      </c>
-      <c r="F14">
-        <v>196205</v>
-      </c>
-      <c r="G14">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="H14">
-        <v>72.5</v>
-      </c>
-      <c r="I14">
-        <v>6.7</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>3845623</v>
-      </c>
-      <c r="D15">
-        <v>533916</v>
-      </c>
-      <c r="E15">
-        <v>3389719</v>
-      </c>
-      <c r="F15">
-        <v>249676</v>
-      </c>
-      <c r="G15">
-        <v>13.9</v>
-      </c>
-      <c r="H15">
-        <v>88.1</v>
-      </c>
-      <c r="I15">
-        <v>6.5</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
-        <v>2022</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>6755522</v>
-      </c>
-      <c r="D16">
-        <v>1561128</v>
-      </c>
-      <c r="E16">
-        <v>5499702</v>
-      </c>
-      <c r="F16">
-        <v>445881</v>
-      </c>
-      <c r="G16">
-        <v>23.1</v>
-      </c>
-      <c r="H16">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="I16">
-        <v>6.6</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17">
-        <v>2023</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>2892418</v>
-      </c>
-      <c r="D17">
-        <v>1021051</v>
-      </c>
-      <c r="E17">
-        <v>2106085</v>
-      </c>
-      <c r="F17">
-        <v>180280</v>
-      </c>
-      <c r="G17">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="H17">
-        <v>72.8</v>
-      </c>
-      <c r="I17">
-        <v>6.2</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18">
-        <v>2023</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18">
-        <v>3875911</v>
-      </c>
-      <c r="D18">
-        <v>577074</v>
-      </c>
-      <c r="E18">
-        <v>3466663</v>
-      </c>
-      <c r="F18">
-        <v>267574</v>
-      </c>
-      <c r="G18">
-        <v>14.9</v>
-      </c>
-      <c r="H18">
-        <v>89.4</v>
-      </c>
-      <c r="I18">
-        <v>6.9</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19">
-        <v>2023</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>6768329</v>
-      </c>
-      <c r="D19">
-        <v>1598125</v>
-      </c>
-      <c r="E19">
-        <v>5572748</v>
-      </c>
-      <c r="F19">
-        <v>447854</v>
-      </c>
-      <c r="G19">
-        <v>23.6</v>
-      </c>
-      <c r="H19">
-        <v>82.3</v>
-      </c>
-      <c r="I19">
-        <v>6.6</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF04176-3630-44AA-BE48-6C305470BD30}">
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>2018</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>93.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2018</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D3" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="E3" s="3">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>2019</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E4" s="28">
-        <v>10.4</v>
-      </c>
-      <c r="F4" s="4">
-        <v>89.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>2019</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10.4</v>
-      </c>
-      <c r="E5" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="F5" s="5">
-        <v>88.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>2020</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>10.1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="F6" s="5">
-        <v>88.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>2020</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>10.9</v>
-      </c>
-      <c r="E7" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="F7" s="5">
-        <v>88.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>2021</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>11.7</v>
-      </c>
-      <c r="E8" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="F8" s="5">
-        <v>86.2</v>
-      </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>2021</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="D9" s="7">
-        <v>12.3</v>
-      </c>
-      <c r="E9" s="6">
-        <v>13</v>
-      </c>
-      <c r="F9" s="6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="29">
-        <v>12.1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>87.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="29">
-        <v>14.5</v>
-      </c>
-      <c r="F11" s="8">
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>2023</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="D12" s="8">
-        <v>11.6</v>
-      </c>
-      <c r="E12" s="29">
-        <v>13.2</v>
-      </c>
-      <c r="F12" s="8">
-        <v>86.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>2023</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2.6</v>
-      </c>
-      <c r="D13" s="9">
-        <v>15</v>
-      </c>
-      <c r="E13" s="29">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F13" s="8">
-        <v>82.4</v>
-      </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="E14" s="30"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/datos_tp.xlsx
+++ b/data/datos_tp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\indicadores-socioeconomicos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indecok-my.sharepoint.com/personal/agomezvargas_indec_gob_ar/Documents/Documentos/GitHub/indicadores-socioeconomicos/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DABBFD-47B4-43E9-AE65-22DEBD3B4492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{26DABBFD-47B4-43E9-AE65-22DEBD3B4492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F95AC814-DBC3-4B61-9CD6-C1E1DA12F850}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1260" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AF598439-62DC-4F7D-BE55-398D701C39E6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{AF598439-62DC-4F7D-BE55-398D701C39E6}"/>
   </bookViews>
   <sheets>
     <sheet name="piramide" sheetId="9" r:id="rId1"/>
@@ -7314,7 +7314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7530753F-476B-4D0D-BBB8-9652C24C5C79}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -8927,8 +8927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B6FAF5-E35B-4BBC-9459-CD58CEE31A92}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -9014,8 +9014,8 @@
         <v>37</v>
       </c>
       <c r="D6">
-        <f>93.31+6.5</f>
-        <v>99.81</v>
+        <f>92.31+1.19</f>
+        <v>93.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9029,8 +9029,7 @@
         <v>37</v>
       </c>
       <c r="D7">
-        <f>100-D6</f>
-        <v>0.18999999999999773</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9044,8 +9043,8 @@
         <v>36</v>
       </c>
       <c r="D8">
-        <f>92.28+6.76</f>
-        <v>99.04</v>
+        <f>92.28+0.96</f>
+        <v>93.24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9059,7 +9058,7 @@
         <v>36</v>
       </c>
       <c r="D9">
-        <v>0.96</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9073,8 +9072,8 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <f>92.05+6.05</f>
-        <v>98.1</v>
+        <f>92.06+1.89</f>
+        <v>93.95</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9088,8 +9087,7 @@
         <v>37</v>
       </c>
       <c r="D11">
-        <f>100-D10</f>
-        <v>1.9000000000000057</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9103,8 +9101,8 @@
         <v>36</v>
       </c>
       <c r="D12">
-        <f>92.29+6.1</f>
-        <v>98.39</v>
+        <f>92.29+1.61</f>
+        <v>93.9</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9118,8 +9116,7 @@
         <v>36</v>
       </c>
       <c r="D13">
-        <f>100-D12</f>
-        <v>1.6099999999999994</v>
+        <v>6.1</v>
       </c>
     </row>
   </sheetData>
